--- a/RData/data_rt_congr.xlsx
+++ b/RData/data_rt_congr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,25 +375,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>lesion_volume</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>congruent_log</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>congruent_log</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>incongruent_log</t>
         </is>
@@ -412,18 +407,15 @@
         <v>823.4285714285714</v>
       </c>
       <c r="D2">
-        <v>80497</v>
+        <v>1022.849315068493</v>
       </c>
       <c r="E2">
-        <v>1022.849315068493</v>
+        <v>1051</v>
       </c>
       <c r="F2">
-        <v>1051</v>
+        <v>6.957497370876951</v>
       </c>
       <c r="G2">
-        <v>6.957497370876951</v>
-      </c>
-      <c r="H2">
         <v>6.930347458004096</v>
       </c>
     </row>
@@ -440,18 +432,15 @@
         <v>185.2857142857143</v>
       </c>
       <c r="D3">
-        <v>23285</v>
+        <v>1506.061538461538</v>
       </c>
       <c r="E3">
-        <v>1506.061538461538</v>
+        <v>1586.731707317073</v>
       </c>
       <c r="F3">
-        <v>1586.731707317073</v>
+        <v>7.369431649723765</v>
       </c>
       <c r="G3">
-        <v>7.369431649723765</v>
-      </c>
-      <c r="H3">
         <v>7.317253269717259</v>
       </c>
     </row>
@@ -468,18 +457,15 @@
         <v>280.8571428571428</v>
       </c>
       <c r="D4">
-        <v>10727</v>
+        <v>1158.205298013245</v>
       </c>
       <c r="E4">
-        <v>1158.205298013245</v>
+        <v>1137.520547945205</v>
       </c>
       <c r="F4">
-        <v>1137.520547945205</v>
+        <v>7.036606214789604</v>
       </c>
       <c r="G4">
-        <v>7.036606214789604</v>
-      </c>
-      <c r="H4">
         <v>7.054626929132155</v>
       </c>
     </row>
@@ -496,18 +482,15 @@
         <v>334.4285714285714</v>
       </c>
       <c r="D5">
-        <v>90943</v>
+        <v>1369.785714285714</v>
       </c>
       <c r="E5">
-        <v>1369.785714285714</v>
+        <v>1348.515625</v>
       </c>
       <c r="F5">
-        <v>1348.515625</v>
+        <v>7.206759729461118</v>
       </c>
       <c r="G5">
-        <v>7.206759729461118</v>
-      </c>
-      <c r="H5">
         <v>7.222409593658257</v>
       </c>
     </row>
@@ -524,18 +507,15 @@
         <v>509.2857142857143</v>
       </c>
       <c r="D6">
-        <v>37855</v>
+        <v>1237.786585365854</v>
       </c>
       <c r="E6">
-        <v>1237.786585365854</v>
+        <v>1100.89696969697</v>
       </c>
       <c r="F6">
-        <v>1100.89696969697</v>
+        <v>7.003880553503734</v>
       </c>
       <c r="G6">
-        <v>7.003880553503734</v>
-      </c>
-      <c r="H6">
         <v>7.121080051765402</v>
       </c>
     </row>
@@ -552,18 +532,15 @@
         <v>516.8571428571429</v>
       </c>
       <c r="D7">
-        <v>84355</v>
+        <v>1195.567567567567</v>
       </c>
       <c r="E7">
-        <v>1195.567567567567</v>
+        <v>1226</v>
       </c>
       <c r="F7">
-        <v>1226</v>
+        <v>7.111512116496157</v>
       </c>
       <c r="G7">
-        <v>7.111512116496157</v>
-      </c>
-      <c r="H7">
         <v>7.086376303551026</v>
       </c>
     </row>
@@ -580,18 +557,15 @@
         <v>337.2857142857143</v>
       </c>
       <c r="D8">
-        <v>32445</v>
+        <v>1048.115384615385</v>
       </c>
       <c r="E8">
-        <v>1048.115384615385</v>
+        <v>978.7857142857143</v>
       </c>
       <c r="F8">
-        <v>978.7857142857143</v>
+        <v>6.886312736330942</v>
       </c>
       <c r="G8">
-        <v>6.886312736330942</v>
-      </c>
-      <c r="H8">
         <v>6.954748958644287</v>
       </c>
     </row>
@@ -608,18 +582,15 @@
         <v>469.2857142857143</v>
       </c>
       <c r="D9">
-        <v>426250</v>
+        <v>1840.85</v>
       </c>
       <c r="E9">
-        <v>1840.85</v>
+        <v>2298.666666666667</v>
       </c>
       <c r="F9">
-        <v>2298.666666666667</v>
+        <v>7.740084523675419</v>
       </c>
       <c r="G9">
-        <v>7.740084523675419</v>
-      </c>
-      <c r="H9">
         <v>7.517982700455706</v>
       </c>
     </row>
@@ -636,18 +607,15 @@
         <v>31.28571428571428</v>
       </c>
       <c r="D10">
-        <v>93057</v>
+        <v>1231.991452991453</v>
       </c>
       <c r="E10">
-        <v>1231.991452991453</v>
+        <v>1332.833333333333</v>
       </c>
       <c r="F10">
-        <v>1332.833333333333</v>
+        <v>7.195062281103835</v>
       </c>
       <c r="G10">
-        <v>7.195062281103835</v>
-      </c>
-      <c r="H10">
         <v>7.116387206562463</v>
       </c>
     </row>
@@ -664,18 +632,15 @@
         <v>331.1428571428572</v>
       </c>
       <c r="D11">
-        <v>38515</v>
+        <v>1174.724637681159</v>
       </c>
       <c r="E11">
-        <v>1174.724637681159</v>
+        <v>1141.180555555556</v>
       </c>
       <c r="F11">
-        <v>1141.180555555556</v>
+        <v>7.039818580599335</v>
       </c>
       <c r="G11">
-        <v>7.039818580599335</v>
-      </c>
-      <c r="H11">
         <v>7.068789048204143</v>
       </c>
     </row>
@@ -692,18 +657,15 @@
         <v>1422.428571428571</v>
       </c>
       <c r="D12">
-        <v>159574</v>
+        <v>1654.716417910448</v>
       </c>
       <c r="E12">
-        <v>1654.716417910448</v>
+        <v>1608.682926829268</v>
       </c>
       <c r="F12">
-        <v>1608.682926829268</v>
+        <v>7.383171065316551</v>
       </c>
       <c r="G12">
-        <v>7.383171065316551</v>
-      </c>
-      <c r="H12">
         <v>7.411384924434705</v>
       </c>
     </row>
@@ -720,18 +682,15 @@
         <v>239.7142857142857</v>
       </c>
       <c r="D13">
-        <v>161280</v>
+        <v>1446.317307692308</v>
       </c>
       <c r="E13">
-        <v>1446.317307692308</v>
+        <v>1624.189655172414</v>
       </c>
       <c r="F13">
-        <v>1624.189655172414</v>
+        <v>7.392764296644684</v>
       </c>
       <c r="G13">
-        <v>7.392764296644684</v>
-      </c>
-      <c r="H13">
         <v>7.276775816883772</v>
       </c>
     </row>
@@ -748,18 +707,15 @@
         <v>450.8571428571428</v>
       </c>
       <c r="D14">
-        <v>53638</v>
+        <v>925.2541436464088</v>
       </c>
       <c r="E14">
-        <v>925.2541436464088</v>
+        <v>1018.225433526012</v>
       </c>
       <c r="F14">
-        <v>1018.225433526012</v>
+        <v>6.92581662006612</v>
       </c>
       <c r="G14">
-        <v>6.92581662006612</v>
-      </c>
-      <c r="H14">
         <v>6.830068449663596</v>
       </c>
     </row>
@@ -776,18 +732,15 @@
         <v>443.1428571428572</v>
       </c>
       <c r="D15">
-        <v>113765</v>
+        <v>1175.921052631579</v>
       </c>
       <c r="E15">
-        <v>1175.921052631579</v>
+        <v>1242.395833333333</v>
       </c>
       <c r="F15">
-        <v>1242.395833333333</v>
+        <v>7.124796918104878</v>
       </c>
       <c r="G15">
-        <v>7.124796918104878</v>
-      </c>
-      <c r="H15">
         <v>7.069806994089107</v>
       </c>
     </row>
@@ -804,18 +757,15 @@
         <v>405.5714285714286</v>
       </c>
       <c r="D16">
-        <v>46460</v>
+        <v>969.6827586206897</v>
       </c>
       <c r="E16">
-        <v>969.6827586206897</v>
+        <v>970.7785714285715</v>
       </c>
       <c r="F16">
-        <v>970.7785714285715</v>
+        <v>6.878098400502704</v>
       </c>
       <c r="G16">
-        <v>6.878098400502704</v>
-      </c>
-      <c r="H16">
         <v>6.876968965035582</v>
       </c>
     </row>
@@ -832,18 +782,15 @@
         <v>179.8571428571429</v>
       </c>
       <c r="D17">
-        <v>60757</v>
+        <v>1275.381443298969</v>
       </c>
       <c r="E17">
-        <v>1275.381443298969</v>
+        <v>1148.336633663366</v>
       </c>
       <c r="F17">
-        <v>1148.336633663366</v>
+        <v>7.046069768792965</v>
       </c>
       <c r="G17">
-        <v>7.046069768792965</v>
-      </c>
-      <c r="H17">
         <v>7.15100058406462</v>
       </c>
     </row>
@@ -860,18 +807,15 @@
         <v>202.7142857142857</v>
       </c>
       <c r="D18">
-        <v>124042</v>
+        <v>1694.032894736842</v>
       </c>
       <c r="E18">
-        <v>1694.032894736842</v>
+        <v>1549.293333333333</v>
       </c>
       <c r="F18">
-        <v>1549.293333333333</v>
+        <v>7.34555419197442</v>
       </c>
       <c r="G18">
-        <v>7.34555419197442</v>
-      </c>
-      <c r="H18">
         <v>7.434867293404128</v>
       </c>
     </row>
@@ -888,18 +832,15 @@
         <v>141.7142857142857</v>
       </c>
       <c r="D19">
-        <v>51685</v>
+        <v>2173.2</v>
       </c>
       <c r="E19">
-        <v>2173.2</v>
+        <v>1868.6875</v>
       </c>
       <c r="F19">
-        <v>1868.6875</v>
+        <v>7.532991591763652</v>
       </c>
       <c r="G19">
-        <v>7.532991591763652</v>
-      </c>
-      <c r="H19">
         <v>7.683956014677368</v>
       </c>
     </row>
@@ -916,18 +857,15 @@
         <v>275</v>
       </c>
       <c r="D20">
-        <v>33649</v>
+        <v>1237.407894736842</v>
       </c>
       <c r="E20">
-        <v>1237.407894736842</v>
+        <v>1104.277777777778</v>
       </c>
       <c r="F20">
-        <v>1104.277777777778</v>
+        <v>7.006946805494435</v>
       </c>
       <c r="G20">
-        <v>7.006946805494435</v>
-      </c>
-      <c r="H20">
         <v>7.120774063177426</v>
       </c>
     </row>
@@ -944,18 +882,15 @@
         <v>555.8571428571429</v>
       </c>
       <c r="D21">
-        <v>94032</v>
+        <v>970.8846153846154</v>
       </c>
       <c r="E21">
-        <v>970.8846153846154</v>
+        <v>1071.2</v>
       </c>
       <c r="F21">
-        <v>1071.2</v>
+        <v>6.976534794376962</v>
       </c>
       <c r="G21">
-        <v>6.976534794376962</v>
-      </c>
-      <c r="H21">
         <v>6.878207630524543</v>
       </c>
     </row>
@@ -972,18 +907,15 @@
         <v>843.2857142857143</v>
       </c>
       <c r="D22">
-        <v>164920</v>
+        <v>1548.211678832117</v>
       </c>
       <c r="E22">
-        <v>1548.211678832117</v>
+        <v>1338.157142857143</v>
       </c>
       <c r="F22">
-        <v>1338.157142857143</v>
+        <v>7.199048679873495</v>
       </c>
       <c r="G22">
-        <v>7.199048679873495</v>
-      </c>
-      <c r="H22">
         <v>7.344855788232741</v>
       </c>
     </row>
@@ -1000,18 +932,15 @@
         <v>146.2857142857143</v>
       </c>
       <c r="D23">
-        <v>84257</v>
+        <v>1357.736842105263</v>
       </c>
       <c r="E23">
-        <v>1357.736842105263</v>
+        <v>1402.592592592593</v>
       </c>
       <c r="F23">
-        <v>1402.592592592593</v>
+        <v>7.246077654891511</v>
       </c>
       <c r="G23">
-        <v>7.246077654891511</v>
-      </c>
-      <c r="H23">
         <v>7.213574505912566</v>
       </c>
     </row>
@@ -1028,18 +957,15 @@
         <v>162.2857142857143</v>
       </c>
       <c r="D24">
-        <v>28230</v>
+        <v>916.6866666666666</v>
       </c>
       <c r="E24">
-        <v>916.6866666666666</v>
+        <v>879.7165354330708</v>
       </c>
       <c r="F24">
-        <v>879.7165354330708</v>
+        <v>6.779599736754784</v>
       </c>
       <c r="G24">
-        <v>6.779599736754784</v>
-      </c>
-      <c r="H24">
         <v>6.820765719936312</v>
       </c>
     </row>
@@ -1056,18 +982,15 @@
         <v>481.5714285714286</v>
       </c>
       <c r="D25">
-        <v>246035</v>
+        <v>1131.529411764706</v>
       </c>
       <c r="E25">
-        <v>1131.529411764706</v>
+        <v>1142.411214953271</v>
       </c>
       <c r="F25">
-        <v>1142.411214953271</v>
+        <v>7.04089640854805</v>
       </c>
       <c r="G25">
-        <v>7.04089640854805</v>
-      </c>
-      <c r="H25">
         <v>7.031325458341337</v>
       </c>
     </row>
@@ -1084,18 +1007,15 @@
         <v>128.5714285714286</v>
       </c>
       <c r="D26">
-        <v>23763</v>
+        <v>1169.607142857143</v>
       </c>
       <c r="E26">
-        <v>1169.607142857143</v>
+        <v>1031.248120300752</v>
       </c>
       <c r="F26">
-        <v>1031.248120300752</v>
+        <v>6.938525114908565</v>
       </c>
       <c r="G26">
-        <v>6.938525114908565</v>
-      </c>
-      <c r="H26">
         <v>7.064423196070866</v>
       </c>
     </row>
@@ -1112,18 +1032,15 @@
         <v>131.4285714285714</v>
       </c>
       <c r="D27">
-        <v>8264</v>
+        <v>720.0820895522388</v>
       </c>
       <c r="E27">
-        <v>720.0820895522388</v>
+        <v>684.2615384615384</v>
       </c>
       <c r="F27">
-        <v>684.2615384615384</v>
+        <v>6.528340210711074</v>
       </c>
       <c r="G27">
-        <v>6.528340210711074</v>
-      </c>
-      <c r="H27">
         <v>6.579365218778081</v>
       </c>
     </row>
@@ -1140,18 +1057,15 @@
         <v>436.4285714285714</v>
       </c>
       <c r="D28">
-        <v>15893</v>
+        <v>1169.748091603053</v>
       </c>
       <c r="E28">
-        <v>1169.748091603053</v>
+        <v>1169.188034188034</v>
       </c>
       <c r="F28">
-        <v>1169.188034188034</v>
+        <v>7.064064798997272</v>
       </c>
       <c r="G28">
-        <v>7.064064798997272</v>
-      </c>
-      <c r="H28">
         <v>7.064543698287891</v>
       </c>
     </row>
@@ -1168,18 +1082,15 @@
         <v>121.5714285714286</v>
       </c>
       <c r="D29">
-        <v>1130</v>
+        <v>829.2300884955753</v>
       </c>
       <c r="E29">
-        <v>829.2300884955753</v>
+        <v>752.1171171171171</v>
       </c>
       <c r="F29">
-        <v>752.1171171171171</v>
+        <v>6.622892052670723</v>
       </c>
       <c r="G29">
-        <v>6.622892052670723</v>
-      </c>
-      <c r="H29">
         <v>6.720497666077411</v>
       </c>
     </row>
@@ -1196,18 +1107,15 @@
         <v>308</v>
       </c>
       <c r="D30">
-        <v>79200</v>
+        <v>1277.457142857143</v>
       </c>
       <c r="E30">
-        <v>1277.457142857143</v>
+        <v>1115.827586206897</v>
       </c>
       <c r="F30">
-        <v>1115.827586206897</v>
+        <v>7.017351638359888</v>
       </c>
       <c r="G30">
-        <v>7.017351638359888</v>
-      </c>
-      <c r="H30">
         <v>7.152626773849482</v>
       </c>
     </row>
@@ -1224,18 +1132,15 @@
         <v>96.71428571428571</v>
       </c>
       <c r="D31">
-        <v>20761</v>
+        <v>1174.910714285714</v>
       </c>
       <c r="E31">
-        <v>1174.910714285714</v>
+        <v>1119.702290076336</v>
       </c>
       <c r="F31">
-        <v>1119.702290076336</v>
+        <v>7.020818116522912</v>
       </c>
       <c r="G31">
-        <v>7.020818116522912</v>
-      </c>
-      <c r="H31">
         <v>7.068947435849092</v>
       </c>
     </row>
@@ -1252,18 +1157,15 @@
         <v>107.5714285714286</v>
       </c>
       <c r="D32">
-        <v>82699</v>
+        <v>1560.508474576271</v>
       </c>
       <c r="E32">
-        <v>1560.508474576271</v>
+        <v>1359.075</v>
       </c>
       <c r="F32">
-        <v>1359.075</v>
+        <v>7.214559600266331</v>
       </c>
       <c r="G32">
-        <v>7.214559600266331</v>
-      </c>
-      <c r="H32">
         <v>7.352766992376172</v>
       </c>
     </row>
@@ -1280,18 +1182,15 @@
         <v>331.5714285714286</v>
       </c>
       <c r="D33">
-        <v>112356</v>
+        <v>1487.424242424242</v>
       </c>
       <c r="E33">
-        <v>1487.424242424242</v>
+        <v>1177.747967479675</v>
       </c>
       <c r="F33">
-        <v>1177.747967479675</v>
+        <v>7.071359391813155</v>
       </c>
       <c r="G33">
-        <v>7.071359391813155</v>
-      </c>
-      <c r="H33">
         <v>7.304801206660142</v>
       </c>
     </row>
@@ -1308,18 +1207,15 @@
         <v>161.7142857142857</v>
       </c>
       <c r="D34">
-        <v>50491</v>
+        <v>1180.883720930233</v>
       </c>
       <c r="E34">
-        <v>1180.883720930233</v>
+        <v>1069.568181818182</v>
       </c>
       <c r="F34">
-        <v>1069.568181818182</v>
+        <v>6.975010277606088</v>
       </c>
       <c r="G34">
-        <v>6.975010277606088</v>
-      </c>
-      <c r="H34">
         <v>7.074018353204599</v>
       </c>
     </row>
@@ -1336,18 +1232,15 @@
         <v>229.8571428571429</v>
       </c>
       <c r="D35">
-        <v>67501</v>
+        <v>1220.4375</v>
       </c>
       <c r="E35">
-        <v>1220.4375</v>
+        <v>1234.301724137931</v>
       </c>
       <c r="F35">
-        <v>1234.301724137931</v>
+        <v>7.118260683603749</v>
       </c>
       <c r="G35">
-        <v>7.118260683603749</v>
-      </c>
-      <c r="H35">
         <v>7.106964680000716</v>
       </c>
     </row>
@@ -1364,18 +1257,15 @@
         <v>196.7142857142857</v>
       </c>
       <c r="D36">
-        <v>25964</v>
+        <v>1429.535714285714</v>
       </c>
       <c r="E36">
-        <v>1429.535714285714</v>
+        <v>1162.5859375</v>
       </c>
       <c r="F36">
-        <v>1162.5859375</v>
+        <v>7.058402059460396</v>
       </c>
       <c r="G36">
-        <v>7.058402059460396</v>
-      </c>
-      <c r="H36">
         <v>7.265104995210833</v>
       </c>
     </row>
@@ -1392,18 +1282,15 @@
         <v>390.1428571428572</v>
       </c>
       <c r="D37">
-        <v>42050</v>
+        <v>1178.422619047619</v>
       </c>
       <c r="E37">
-        <v>1178.422619047619</v>
+        <v>1027.357142857143</v>
       </c>
       <c r="F37">
-        <v>1027.357142857143</v>
+        <v>6.934744902988631</v>
       </c>
       <c r="G37">
-        <v>6.934744902988631</v>
-      </c>
-      <c r="H37">
         <v>7.071932059675354</v>
       </c>
     </row>
@@ -1420,18 +1307,15 @@
         <v>137.2857142857143</v>
       </c>
       <c r="D38">
-        <v>46698</v>
+        <v>963.2</v>
       </c>
       <c r="E38">
-        <v>963.2</v>
+        <v>938.7808219178082</v>
       </c>
       <c r="F38">
-        <v>938.7808219178082</v>
+        <v>6.844582035474438</v>
       </c>
       <c r="G38">
-        <v>6.844582035474438</v>
-      </c>
-      <c r="H38">
         <v>6.870261074554556</v>
       </c>
     </row>
@@ -1448,18 +1332,15 @@
         <v>1061</v>
       </c>
       <c r="D39">
-        <v>149943</v>
+        <v>1000.138461538462</v>
       </c>
       <c r="E39">
-        <v>1000.138461538462</v>
+        <v>977.0245901639345</v>
       </c>
       <c r="F39">
-        <v>977.0245901639345</v>
+        <v>6.884511820778181</v>
       </c>
       <c r="G39">
-        <v>6.884511820778181</v>
-      </c>
-      <c r="H39">
         <v>6.907893730935685</v>
       </c>
     </row>
@@ -1476,18 +1357,15 @@
         <v>79.14285714285714</v>
       </c>
       <c r="D40">
-        <v>79825</v>
+        <v>1431.700729927007</v>
       </c>
       <c r="E40">
-        <v>1431.700729927007</v>
+        <v>1395.452380952381</v>
       </c>
       <c r="F40">
-        <v>1395.452380952381</v>
+        <v>7.240973929106727</v>
       </c>
       <c r="G40">
-        <v>7.240973929106727</v>
-      </c>
-      <c r="H40">
         <v>7.266618338198525</v>
       </c>
     </row>
@@ -1504,18 +1382,15 @@
         <v>95.85714285714286</v>
       </c>
       <c r="D41">
-        <v>150679</v>
+        <v>862.3040540540541</v>
       </c>
       <c r="E41">
-        <v>862.3040540540541</v>
+        <v>898.6171875</v>
       </c>
       <c r="F41">
-        <v>898.6171875</v>
+        <v>6.800857123428436</v>
       </c>
       <c r="G41">
-        <v>6.800857123428436</v>
-      </c>
-      <c r="H41">
         <v>6.759607939389943</v>
       </c>
     </row>
@@ -1532,18 +1407,15 @@
         <v>78.14285714285714</v>
       </c>
       <c r="D42">
-        <v>171357</v>
+        <v>1317.116279069767</v>
       </c>
       <c r="E42">
-        <v>1317.116279069767</v>
+        <v>1304.222222222222</v>
       </c>
       <c r="F42">
-        <v>1304.222222222222</v>
+        <v>7.17336214378206</v>
       </c>
       <c r="G42">
-        <v>7.17336214378206</v>
-      </c>
-      <c r="H42">
         <v>7.183199988711299</v>
       </c>
     </row>
@@ -1560,18 +1432,15 @@
         <v>310.4285714285714</v>
       </c>
       <c r="D43">
-        <v>144941</v>
+        <v>1015.1875</v>
       </c>
       <c r="E43">
-        <v>1015.1875</v>
+        <v>931.6802721088435</v>
       </c>
       <c r="F43">
-        <v>931.6802721088435</v>
+        <v>6.836989700151324</v>
       </c>
       <c r="G43">
-        <v>6.836989700151324</v>
-      </c>
-      <c r="H43">
         <v>6.922828603479615</v>
       </c>
     </row>
@@ -1588,18 +1457,15 @@
         <v>101</v>
       </c>
       <c r="D44">
-        <v>9780</v>
+        <v>1142.117647058823</v>
       </c>
       <c r="E44">
-        <v>1142.117647058823</v>
+        <v>982.6071428571429</v>
       </c>
       <c r="F44">
-        <v>982.6071428571429</v>
+        <v>6.89020938905185</v>
       </c>
       <c r="G44">
-        <v>6.89020938905185</v>
-      </c>
-      <c r="H44">
         <v>7.040639403350221</v>
       </c>
     </row>
@@ -1616,18 +1482,15 @@
         <v>123.5714285714286</v>
       </c>
       <c r="D45">
-        <v>39528</v>
+        <v>796.2074468085107</v>
       </c>
       <c r="E45">
-        <v>796.2074468085107</v>
+        <v>823.9297297297297</v>
       </c>
       <c r="F45">
-        <v>823.9297297297297</v>
+        <v>6.714085246818761</v>
       </c>
       <c r="G45">
-        <v>6.714085246818761</v>
-      </c>
-      <c r="H45">
         <v>6.679859763459568</v>
       </c>
     </row>
@@ -1643,13 +1506,10 @@
       <c r="C46">
         <v>186.7142857142857</v>
       </c>
-      <c r="D46">
-        <v>92619</v>
+      <c r="E46">
+        <v>703.7241379310345</v>
       </c>
       <c r="F46">
-        <v>703.7241379310345</v>
-      </c>
-      <c r="G46">
         <v>6.556386429835174</v>
       </c>
     </row>
@@ -1666,18 +1526,15 @@
         <v>89.42857142857143</v>
       </c>
       <c r="D47">
-        <v>93627</v>
+        <v>1158.4</v>
       </c>
       <c r="E47">
-        <v>1158.4</v>
+        <v>1139.891719745223</v>
       </c>
       <c r="F47">
-        <v>1139.891719745223</v>
+        <v>7.038688554197772</v>
       </c>
       <c r="G47">
-        <v>7.038688554197772</v>
-      </c>
-      <c r="H47">
         <v>7.054795021631452</v>
       </c>
     </row>
@@ -1694,18 +1551,15 @@
         <v>43.28571428571428</v>
       </c>
       <c r="D48">
-        <v>77090</v>
+        <v>1181.511111111111</v>
       </c>
       <c r="E48">
-        <v>1181.511111111111</v>
+        <v>1053.953125</v>
       </c>
       <c r="F48">
-        <v>1053.953125</v>
+        <v>6.9603032546778</v>
       </c>
       <c r="G48">
-        <v>6.9603032546778</v>
-      </c>
-      <c r="H48">
         <v>7.074549500824056</v>
       </c>
     </row>
@@ -1722,18 +1576,15 @@
         <v>60.42857142857143</v>
       </c>
       <c r="D49">
-        <v>30126</v>
+        <v>1520.37323943662</v>
       </c>
       <c r="E49">
-        <v>1520.37323943662</v>
+        <v>1385.095744680851</v>
       </c>
       <c r="F49">
-        <v>1385.095744680851</v>
+        <v>7.233524545965555</v>
       </c>
       <c r="G49">
-        <v>7.233524545965555</v>
-      </c>
-      <c r="H49">
         <v>7.326711135958234</v>
       </c>
     </row>
@@ -1750,18 +1601,15 @@
         <v>34.42857142857143</v>
       </c>
       <c r="D50">
-        <v>176889</v>
+        <v>1099.633333333333</v>
       </c>
       <c r="E50">
-        <v>1099.633333333333</v>
+        <v>1089.154362416107</v>
       </c>
       <c r="F50">
-        <v>1089.154362416107</v>
+        <v>6.993156859826387</v>
       </c>
       <c r="G50">
-        <v>6.993156859826387</v>
-      </c>
-      <c r="H50">
         <v>7.002732069885225</v>
       </c>
     </row>
@@ -1778,18 +1626,15 @@
         <v>31.71428571428572</v>
       </c>
       <c r="D51">
-        <v>3172</v>
+        <v>1733.071428571429</v>
       </c>
       <c r="E51">
-        <v>1733.071428571429</v>
+        <v>1591.183486238532</v>
       </c>
       <c r="F51">
-        <v>1591.183486238532</v>
+        <v>7.372233349304996</v>
       </c>
       <c r="G51">
-        <v>7.372233349304996</v>
-      </c>
-      <c r="H51">
         <v>7.457650505583721</v>
       </c>
     </row>
@@ -1806,18 +1651,15 @@
         <v>28.71428571428572</v>
       </c>
       <c r="D52">
-        <v>36056</v>
+        <v>1105.372549019608</v>
       </c>
       <c r="E52">
-        <v>1105.372549019608</v>
+        <v>975.2183098591549</v>
       </c>
       <c r="F52">
-        <v>975.2183098591549</v>
+        <v>6.882661353482145</v>
       </c>
       <c r="G52">
-        <v>6.882661353482145</v>
-      </c>
-      <c r="H52">
         <v>7.007937705564125</v>
       </c>
     </row>

--- a/RData/data_rt_congr.xlsx
+++ b/RData/data_rt_congr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,20 +375,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent_log</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>congruent_log</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>incongruent_log</t>
         </is>
@@ -407,15 +397,9 @@
         <v>823.4285714285714</v>
       </c>
       <c r="D2">
-        <v>1022.849315068493</v>
+        <v>6.957497370876951</v>
       </c>
       <c r="E2">
-        <v>1051</v>
-      </c>
-      <c r="F2">
-        <v>6.957497370876951</v>
-      </c>
-      <c r="G2">
         <v>6.930347458004096</v>
       </c>
     </row>
@@ -432,15 +416,9 @@
         <v>185.2857142857143</v>
       </c>
       <c r="D3">
-        <v>1506.061538461538</v>
+        <v>7.369431649723765</v>
       </c>
       <c r="E3">
-        <v>1586.731707317073</v>
-      </c>
-      <c r="F3">
-        <v>7.369431649723765</v>
-      </c>
-      <c r="G3">
         <v>7.317253269717259</v>
       </c>
     </row>
@@ -457,15 +435,9 @@
         <v>280.8571428571428</v>
       </c>
       <c r="D4">
-        <v>1158.205298013245</v>
+        <v>7.036606214789604</v>
       </c>
       <c r="E4">
-        <v>1137.520547945205</v>
-      </c>
-      <c r="F4">
-        <v>7.036606214789604</v>
-      </c>
-      <c r="G4">
         <v>7.054626929132155</v>
       </c>
     </row>
@@ -482,15 +454,9 @@
         <v>334.4285714285714</v>
       </c>
       <c r="D5">
-        <v>1369.785714285714</v>
+        <v>7.206759729461118</v>
       </c>
       <c r="E5">
-        <v>1348.515625</v>
-      </c>
-      <c r="F5">
-        <v>7.206759729461118</v>
-      </c>
-      <c r="G5">
         <v>7.222409593658257</v>
       </c>
     </row>
@@ -507,15 +473,9 @@
         <v>509.2857142857143</v>
       </c>
       <c r="D6">
-        <v>1237.786585365854</v>
+        <v>7.003880553503734</v>
       </c>
       <c r="E6">
-        <v>1100.89696969697</v>
-      </c>
-      <c r="F6">
-        <v>7.003880553503734</v>
-      </c>
-      <c r="G6">
         <v>7.121080051765402</v>
       </c>
     </row>
@@ -532,15 +492,9 @@
         <v>516.8571428571429</v>
       </c>
       <c r="D7">
-        <v>1195.567567567567</v>
+        <v>7.111512116496157</v>
       </c>
       <c r="E7">
-        <v>1226</v>
-      </c>
-      <c r="F7">
-        <v>7.111512116496157</v>
-      </c>
-      <c r="G7">
         <v>7.086376303551026</v>
       </c>
     </row>
@@ -557,15 +511,9 @@
         <v>337.2857142857143</v>
       </c>
       <c r="D8">
-        <v>1048.115384615385</v>
+        <v>6.886312736330942</v>
       </c>
       <c r="E8">
-        <v>978.7857142857143</v>
-      </c>
-      <c r="F8">
-        <v>6.886312736330942</v>
-      </c>
-      <c r="G8">
         <v>6.954748958644287</v>
       </c>
     </row>
@@ -582,15 +530,9 @@
         <v>469.2857142857143</v>
       </c>
       <c r="D9">
-        <v>1840.85</v>
+        <v>7.740084523675419</v>
       </c>
       <c r="E9">
-        <v>2298.666666666667</v>
-      </c>
-      <c r="F9">
-        <v>7.740084523675419</v>
-      </c>
-      <c r="G9">
         <v>7.517982700455706</v>
       </c>
     </row>
@@ -607,15 +549,9 @@
         <v>31.28571428571428</v>
       </c>
       <c r="D10">
-        <v>1231.991452991453</v>
+        <v>7.195062281103835</v>
       </c>
       <c r="E10">
-        <v>1332.833333333333</v>
-      </c>
-      <c r="F10">
-        <v>7.195062281103835</v>
-      </c>
-      <c r="G10">
         <v>7.116387206562463</v>
       </c>
     </row>
@@ -632,15 +568,9 @@
         <v>331.1428571428572</v>
       </c>
       <c r="D11">
-        <v>1174.724637681159</v>
+        <v>7.039818580599335</v>
       </c>
       <c r="E11">
-        <v>1141.180555555556</v>
-      </c>
-      <c r="F11">
-        <v>7.039818580599335</v>
-      </c>
-      <c r="G11">
         <v>7.068789048204143</v>
       </c>
     </row>
@@ -657,15 +587,9 @@
         <v>1422.428571428571</v>
       </c>
       <c r="D12">
-        <v>1654.716417910448</v>
+        <v>7.383171065316551</v>
       </c>
       <c r="E12">
-        <v>1608.682926829268</v>
-      </c>
-      <c r="F12">
-        <v>7.383171065316551</v>
-      </c>
-      <c r="G12">
         <v>7.411384924434705</v>
       </c>
     </row>
@@ -682,15 +606,9 @@
         <v>239.7142857142857</v>
       </c>
       <c r="D13">
-        <v>1446.317307692308</v>
+        <v>7.392764296644684</v>
       </c>
       <c r="E13">
-        <v>1624.189655172414</v>
-      </c>
-      <c r="F13">
-        <v>7.392764296644684</v>
-      </c>
-      <c r="G13">
         <v>7.276775816883772</v>
       </c>
     </row>
@@ -707,15 +625,9 @@
         <v>450.8571428571428</v>
       </c>
       <c r="D14">
-        <v>925.2541436464088</v>
+        <v>6.92581662006612</v>
       </c>
       <c r="E14">
-        <v>1018.225433526012</v>
-      </c>
-      <c r="F14">
-        <v>6.92581662006612</v>
-      </c>
-      <c r="G14">
         <v>6.830068449663596</v>
       </c>
     </row>
@@ -732,15 +644,9 @@
         <v>443.1428571428572</v>
       </c>
       <c r="D15">
-        <v>1175.921052631579</v>
+        <v>7.124796918104878</v>
       </c>
       <c r="E15">
-        <v>1242.395833333333</v>
-      </c>
-      <c r="F15">
-        <v>7.124796918104878</v>
-      </c>
-      <c r="G15">
         <v>7.069806994089107</v>
       </c>
     </row>
@@ -757,15 +663,9 @@
         <v>405.5714285714286</v>
       </c>
       <c r="D16">
-        <v>969.6827586206897</v>
+        <v>6.878098400502704</v>
       </c>
       <c r="E16">
-        <v>970.7785714285715</v>
-      </c>
-      <c r="F16">
-        <v>6.878098400502704</v>
-      </c>
-      <c r="G16">
         <v>6.876968965035582</v>
       </c>
     </row>
@@ -782,15 +682,9 @@
         <v>179.8571428571429</v>
       </c>
       <c r="D17">
-        <v>1275.381443298969</v>
+        <v>7.046069768792965</v>
       </c>
       <c r="E17">
-        <v>1148.336633663366</v>
-      </c>
-      <c r="F17">
-        <v>7.046069768792965</v>
-      </c>
-      <c r="G17">
         <v>7.15100058406462</v>
       </c>
     </row>
@@ -807,15 +701,9 @@
         <v>202.7142857142857</v>
       </c>
       <c r="D18">
-        <v>1694.032894736842</v>
+        <v>7.34555419197442</v>
       </c>
       <c r="E18">
-        <v>1549.293333333333</v>
-      </c>
-      <c r="F18">
-        <v>7.34555419197442</v>
-      </c>
-      <c r="G18">
         <v>7.434867293404128</v>
       </c>
     </row>
@@ -832,15 +720,9 @@
         <v>141.7142857142857</v>
       </c>
       <c r="D19">
-        <v>2173.2</v>
+        <v>7.532991591763652</v>
       </c>
       <c r="E19">
-        <v>1868.6875</v>
-      </c>
-      <c r="F19">
-        <v>7.532991591763652</v>
-      </c>
-      <c r="G19">
         <v>7.683956014677368</v>
       </c>
     </row>
@@ -857,15 +739,9 @@
         <v>275</v>
       </c>
       <c r="D20">
-        <v>1237.407894736842</v>
+        <v>7.006946805494435</v>
       </c>
       <c r="E20">
-        <v>1104.277777777778</v>
-      </c>
-      <c r="F20">
-        <v>7.006946805494435</v>
-      </c>
-      <c r="G20">
         <v>7.120774063177426</v>
       </c>
     </row>
@@ -882,15 +758,9 @@
         <v>555.8571428571429</v>
       </c>
       <c r="D21">
-        <v>970.8846153846154</v>
+        <v>6.976534794376962</v>
       </c>
       <c r="E21">
-        <v>1071.2</v>
-      </c>
-      <c r="F21">
-        <v>6.976534794376962</v>
-      </c>
-      <c r="G21">
         <v>6.878207630524543</v>
       </c>
     </row>
@@ -907,15 +777,9 @@
         <v>843.2857142857143</v>
       </c>
       <c r="D22">
-        <v>1548.211678832117</v>
+        <v>7.199048679873495</v>
       </c>
       <c r="E22">
-        <v>1338.157142857143</v>
-      </c>
-      <c r="F22">
-        <v>7.199048679873495</v>
-      </c>
-      <c r="G22">
         <v>7.344855788232741</v>
       </c>
     </row>
@@ -932,15 +796,9 @@
         <v>146.2857142857143</v>
       </c>
       <c r="D23">
-        <v>1357.736842105263</v>
+        <v>7.246077654891511</v>
       </c>
       <c r="E23">
-        <v>1402.592592592593</v>
-      </c>
-      <c r="F23">
-        <v>7.246077654891511</v>
-      </c>
-      <c r="G23">
         <v>7.213574505912566</v>
       </c>
     </row>
@@ -957,15 +815,9 @@
         <v>162.2857142857143</v>
       </c>
       <c r="D24">
-        <v>916.6866666666666</v>
+        <v>6.779599736754784</v>
       </c>
       <c r="E24">
-        <v>879.7165354330708</v>
-      </c>
-      <c r="F24">
-        <v>6.779599736754784</v>
-      </c>
-      <c r="G24">
         <v>6.820765719936312</v>
       </c>
     </row>
@@ -982,15 +834,9 @@
         <v>481.5714285714286</v>
       </c>
       <c r="D25">
-        <v>1131.529411764706</v>
+        <v>7.04089640854805</v>
       </c>
       <c r="E25">
-        <v>1142.411214953271</v>
-      </c>
-      <c r="F25">
-        <v>7.04089640854805</v>
-      </c>
-      <c r="G25">
         <v>7.031325458341337</v>
       </c>
     </row>
@@ -1007,15 +853,9 @@
         <v>128.5714285714286</v>
       </c>
       <c r="D26">
-        <v>1169.607142857143</v>
+        <v>6.938525114908565</v>
       </c>
       <c r="E26">
-        <v>1031.248120300752</v>
-      </c>
-      <c r="F26">
-        <v>6.938525114908565</v>
-      </c>
-      <c r="G26">
         <v>7.064423196070866</v>
       </c>
     </row>
@@ -1032,15 +872,9 @@
         <v>131.4285714285714</v>
       </c>
       <c r="D27">
-        <v>720.0820895522388</v>
+        <v>6.528340210711074</v>
       </c>
       <c r="E27">
-        <v>684.2615384615384</v>
-      </c>
-      <c r="F27">
-        <v>6.528340210711074</v>
-      </c>
-      <c r="G27">
         <v>6.579365218778081</v>
       </c>
     </row>
@@ -1057,15 +891,9 @@
         <v>436.4285714285714</v>
       </c>
       <c r="D28">
-        <v>1169.748091603053</v>
+        <v>7.064064798997272</v>
       </c>
       <c r="E28">
-        <v>1169.188034188034</v>
-      </c>
-      <c r="F28">
-        <v>7.064064798997272</v>
-      </c>
-      <c r="G28">
         <v>7.064543698287891</v>
       </c>
     </row>
@@ -1082,15 +910,9 @@
         <v>121.5714285714286</v>
       </c>
       <c r="D29">
-        <v>829.2300884955753</v>
+        <v>6.622892052670723</v>
       </c>
       <c r="E29">
-        <v>752.1171171171171</v>
-      </c>
-      <c r="F29">
-        <v>6.622892052670723</v>
-      </c>
-      <c r="G29">
         <v>6.720497666077411</v>
       </c>
     </row>
@@ -1107,15 +929,9 @@
         <v>308</v>
       </c>
       <c r="D30">
-        <v>1277.457142857143</v>
+        <v>7.017351638359888</v>
       </c>
       <c r="E30">
-        <v>1115.827586206897</v>
-      </c>
-      <c r="F30">
-        <v>7.017351638359888</v>
-      </c>
-      <c r="G30">
         <v>7.152626773849482</v>
       </c>
     </row>
@@ -1132,15 +948,9 @@
         <v>96.71428571428571</v>
       </c>
       <c r="D31">
-        <v>1174.910714285714</v>
+        <v>7.020818116522912</v>
       </c>
       <c r="E31">
-        <v>1119.702290076336</v>
-      </c>
-      <c r="F31">
-        <v>7.020818116522912</v>
-      </c>
-      <c r="G31">
         <v>7.068947435849092</v>
       </c>
     </row>
@@ -1157,15 +967,9 @@
         <v>107.5714285714286</v>
       </c>
       <c r="D32">
-        <v>1560.508474576271</v>
+        <v>7.214559600266331</v>
       </c>
       <c r="E32">
-        <v>1359.075</v>
-      </c>
-      <c r="F32">
-        <v>7.214559600266331</v>
-      </c>
-      <c r="G32">
         <v>7.352766992376172</v>
       </c>
     </row>
@@ -1182,15 +986,9 @@
         <v>331.5714285714286</v>
       </c>
       <c r="D33">
-        <v>1487.424242424242</v>
+        <v>7.071359391813155</v>
       </c>
       <c r="E33">
-        <v>1177.747967479675</v>
-      </c>
-      <c r="F33">
-        <v>7.071359391813155</v>
-      </c>
-      <c r="G33">
         <v>7.304801206660142</v>
       </c>
     </row>
@@ -1207,15 +1005,9 @@
         <v>161.7142857142857</v>
       </c>
       <c r="D34">
-        <v>1180.883720930233</v>
+        <v>6.975010277606088</v>
       </c>
       <c r="E34">
-        <v>1069.568181818182</v>
-      </c>
-      <c r="F34">
-        <v>6.975010277606088</v>
-      </c>
-      <c r="G34">
         <v>7.074018353204599</v>
       </c>
     </row>
@@ -1232,15 +1024,9 @@
         <v>229.8571428571429</v>
       </c>
       <c r="D35">
-        <v>1220.4375</v>
+        <v>7.118260683603749</v>
       </c>
       <c r="E35">
-        <v>1234.301724137931</v>
-      </c>
-      <c r="F35">
-        <v>7.118260683603749</v>
-      </c>
-      <c r="G35">
         <v>7.106964680000716</v>
       </c>
     </row>
@@ -1257,15 +1043,9 @@
         <v>196.7142857142857</v>
       </c>
       <c r="D36">
-        <v>1429.535714285714</v>
+        <v>7.058402059460396</v>
       </c>
       <c r="E36">
-        <v>1162.5859375</v>
-      </c>
-      <c r="F36">
-        <v>7.058402059460396</v>
-      </c>
-      <c r="G36">
         <v>7.265104995210833</v>
       </c>
     </row>
@@ -1282,15 +1062,9 @@
         <v>390.1428571428572</v>
       </c>
       <c r="D37">
-        <v>1178.422619047619</v>
+        <v>6.934744902988631</v>
       </c>
       <c r="E37">
-        <v>1027.357142857143</v>
-      </c>
-      <c r="F37">
-        <v>6.934744902988631</v>
-      </c>
-      <c r="G37">
         <v>7.071932059675354</v>
       </c>
     </row>
@@ -1307,15 +1081,9 @@
         <v>137.2857142857143</v>
       </c>
       <c r="D38">
-        <v>963.2</v>
+        <v>6.844582035474438</v>
       </c>
       <c r="E38">
-        <v>938.7808219178082</v>
-      </c>
-      <c r="F38">
-        <v>6.844582035474438</v>
-      </c>
-      <c r="G38">
         <v>6.870261074554556</v>
       </c>
     </row>
@@ -1332,15 +1100,9 @@
         <v>1061</v>
       </c>
       <c r="D39">
-        <v>1000.138461538462</v>
+        <v>6.884511820778181</v>
       </c>
       <c r="E39">
-        <v>977.0245901639345</v>
-      </c>
-      <c r="F39">
-        <v>6.884511820778181</v>
-      </c>
-      <c r="G39">
         <v>6.907893730935685</v>
       </c>
     </row>
@@ -1357,15 +1119,9 @@
         <v>79.14285714285714</v>
       </c>
       <c r="D40">
-        <v>1431.700729927007</v>
+        <v>7.240973929106727</v>
       </c>
       <c r="E40">
-        <v>1395.452380952381</v>
-      </c>
-      <c r="F40">
-        <v>7.240973929106727</v>
-      </c>
-      <c r="G40">
         <v>7.266618338198525</v>
       </c>
     </row>
@@ -1382,15 +1138,9 @@
         <v>95.85714285714286</v>
       </c>
       <c r="D41">
-        <v>862.3040540540541</v>
+        <v>6.800857123428436</v>
       </c>
       <c r="E41">
-        <v>898.6171875</v>
-      </c>
-      <c r="F41">
-        <v>6.800857123428436</v>
-      </c>
-      <c r="G41">
         <v>6.759607939389943</v>
       </c>
     </row>
@@ -1407,15 +1157,9 @@
         <v>78.14285714285714</v>
       </c>
       <c r="D42">
-        <v>1317.116279069767</v>
+        <v>7.17336214378206</v>
       </c>
       <c r="E42">
-        <v>1304.222222222222</v>
-      </c>
-      <c r="F42">
-        <v>7.17336214378206</v>
-      </c>
-      <c r="G42">
         <v>7.183199988711299</v>
       </c>
     </row>
@@ -1432,15 +1176,9 @@
         <v>310.4285714285714</v>
       </c>
       <c r="D43">
-        <v>1015.1875</v>
+        <v>6.836989700151324</v>
       </c>
       <c r="E43">
-        <v>931.6802721088435</v>
-      </c>
-      <c r="F43">
-        <v>6.836989700151324</v>
-      </c>
-      <c r="G43">
         <v>6.922828603479615</v>
       </c>
     </row>
@@ -1457,15 +1195,9 @@
         <v>101</v>
       </c>
       <c r="D44">
-        <v>1142.117647058823</v>
+        <v>6.89020938905185</v>
       </c>
       <c r="E44">
-        <v>982.6071428571429</v>
-      </c>
-      <c r="F44">
-        <v>6.89020938905185</v>
-      </c>
-      <c r="G44">
         <v>7.040639403350221</v>
       </c>
     </row>
@@ -1482,15 +1214,9 @@
         <v>123.5714285714286</v>
       </c>
       <c r="D45">
-        <v>796.2074468085107</v>
+        <v>6.714085246818761</v>
       </c>
       <c r="E45">
-        <v>823.9297297297297</v>
-      </c>
-      <c r="F45">
-        <v>6.714085246818761</v>
-      </c>
-      <c r="G45">
         <v>6.679859763459568</v>
       </c>
     </row>
@@ -1506,10 +1232,7 @@
       <c r="C46">
         <v>186.7142857142857</v>
       </c>
-      <c r="E46">
-        <v>703.7241379310345</v>
-      </c>
-      <c r="F46">
+      <c r="D46">
         <v>6.556386429835174</v>
       </c>
     </row>
@@ -1526,15 +1249,9 @@
         <v>89.42857142857143</v>
       </c>
       <c r="D47">
-        <v>1158.4</v>
+        <v>7.038688554197772</v>
       </c>
       <c r="E47">
-        <v>1139.891719745223</v>
-      </c>
-      <c r="F47">
-        <v>7.038688554197772</v>
-      </c>
-      <c r="G47">
         <v>7.054795021631452</v>
       </c>
     </row>
@@ -1551,15 +1268,9 @@
         <v>43.28571428571428</v>
       </c>
       <c r="D48">
-        <v>1181.511111111111</v>
+        <v>6.9603032546778</v>
       </c>
       <c r="E48">
-        <v>1053.953125</v>
-      </c>
-      <c r="F48">
-        <v>6.9603032546778</v>
-      </c>
-      <c r="G48">
         <v>7.074549500824056</v>
       </c>
     </row>
@@ -1576,15 +1287,9 @@
         <v>60.42857142857143</v>
       </c>
       <c r="D49">
-        <v>1520.37323943662</v>
+        <v>7.233524545965555</v>
       </c>
       <c r="E49">
-        <v>1385.095744680851</v>
-      </c>
-      <c r="F49">
-        <v>7.233524545965555</v>
-      </c>
-      <c r="G49">
         <v>7.326711135958234</v>
       </c>
     </row>
@@ -1601,15 +1306,9 @@
         <v>34.42857142857143</v>
       </c>
       <c r="D50">
-        <v>1099.633333333333</v>
+        <v>6.993156859826387</v>
       </c>
       <c r="E50">
-        <v>1089.154362416107</v>
-      </c>
-      <c r="F50">
-        <v>6.993156859826387</v>
-      </c>
-      <c r="G50">
         <v>7.002732069885225</v>
       </c>
     </row>
@@ -1626,15 +1325,9 @@
         <v>31.71428571428572</v>
       </c>
       <c r="D51">
-        <v>1733.071428571429</v>
+        <v>7.372233349304996</v>
       </c>
       <c r="E51">
-        <v>1591.183486238532</v>
-      </c>
-      <c r="F51">
-        <v>7.372233349304996</v>
-      </c>
-      <c r="G51">
         <v>7.457650505583721</v>
       </c>
     </row>
@@ -1651,15 +1344,9 @@
         <v>28.71428571428572</v>
       </c>
       <c r="D52">
-        <v>1105.372549019608</v>
+        <v>6.882661353482145</v>
       </c>
       <c r="E52">
-        <v>975.2183098591549</v>
-      </c>
-      <c r="F52">
-        <v>6.882661353482145</v>
-      </c>
-      <c r="G52">
         <v>7.007937705564125</v>
       </c>
     </row>

--- a/RData/data_rt_congr.xlsx
+++ b/RData/data_rt_congr.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -406,948 +406,948 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub 4002</t>
+          <t>sub 3058</t>
         </is>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>185.2857142857143</v>
+        <v>1422.428571428571</v>
       </c>
       <c r="D3">
-        <v>7.369431649723765</v>
+        <v>7.383171065316551</v>
       </c>
       <c r="E3">
-        <v>7.317253269717259</v>
+        <v>7.434027401184465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub 3676</t>
+          <t>sub 2917</t>
         </is>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>280.8571428571428</v>
+        <v>450.8571428571428</v>
       </c>
       <c r="D4">
-        <v>7.036606214789604</v>
+        <v>6.92581662006612</v>
       </c>
       <c r="E4">
-        <v>7.054626929132155</v>
+        <v>6.830068449663596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub 3364</t>
+          <t>sub 3104</t>
         </is>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>334.4285714285714</v>
+        <v>405.5714285714286</v>
       </c>
       <c r="D5">
-        <v>7.206759729461118</v>
+        <v>6.878098400502704</v>
       </c>
       <c r="E5">
-        <v>7.222409593658257</v>
+        <v>6.876968965035582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub 3299</t>
+          <t>sub 3889</t>
         </is>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>509.2857142857143</v>
+        <v>202.7142857142857</v>
       </c>
       <c r="D6">
-        <v>7.003880553503734</v>
+        <v>7.34555419197442</v>
       </c>
       <c r="E6">
-        <v>7.121080051765402</v>
+        <v>7.434867293404128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub 2884</t>
+          <t>sub 3642</t>
         </is>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>516.8571428571429</v>
+        <v>275</v>
       </c>
       <c r="D7">
-        <v>7.111512116496157</v>
+        <v>7.006946805494435</v>
       </c>
       <c r="E7">
-        <v>7.086376303551026</v>
+        <v>7.120774063177426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub 3396</t>
+          <t>sub 3035</t>
         </is>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>337.2857142857143</v>
+        <v>843.2857142857143</v>
       </c>
       <c r="D8">
-        <v>6.886312736330942</v>
+        <v>7.199048679873495</v>
       </c>
       <c r="E8">
-        <v>6.954748958644287</v>
+        <v>7.344855788232741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub 2998</t>
+          <t>sub 4182</t>
         </is>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>469.2857142857143</v>
+        <v>146.2857142857143</v>
       </c>
       <c r="D9">
-        <v>7.740084523675419</v>
+        <v>7.246077654891511</v>
       </c>
       <c r="E9">
-        <v>7.517982700455706</v>
+        <v>7.213574505912566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub 4467</t>
+          <t>sub 4137</t>
         </is>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>31.28571428571428</v>
+        <v>162.2857142857143</v>
       </c>
       <c r="D10">
-        <v>7.195062281103835</v>
+        <v>6.779599736754784</v>
       </c>
       <c r="E10">
-        <v>7.116387206562463</v>
+        <v>6.820765719936312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub 3392</t>
+          <t>sub 3583</t>
         </is>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>331.1428571428572</v>
+        <v>481.5714285714286</v>
       </c>
       <c r="D11">
-        <v>7.039818580599335</v>
+        <v>7.04089640854805</v>
       </c>
       <c r="E11">
-        <v>7.068789048204143</v>
+        <v>7.031325458341337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sub 3058</t>
+          <t>sub 4281</t>
         </is>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>1422.428571428571</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="D12">
-        <v>7.383171065316551</v>
+        <v>6.938525114908565</v>
       </c>
       <c r="E12">
-        <v>7.411384924434705</v>
+        <v>7.064423196070866</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sub 3960</t>
+          <t>sub 4191</t>
         </is>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>239.7142857142857</v>
+        <v>131.4285714285714</v>
       </c>
       <c r="D13">
-        <v>7.392764296644684</v>
+        <v>6.528340210711074</v>
       </c>
       <c r="E13">
-        <v>7.276775816883772</v>
+        <v>6.579365218778081</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sub 2917</t>
+          <t>sub 3201</t>
         </is>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>450.8571428571428</v>
+        <v>436.4285714285714</v>
       </c>
       <c r="D14">
-        <v>6.92581662006612</v>
+        <v>7.064064798997272</v>
       </c>
       <c r="E14">
-        <v>6.830068449663596</v>
+        <v>7.064543698287891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sub 3154</t>
+          <t>sub 4275</t>
         </is>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>443.1428571428572</v>
+        <v>121.5714285714286</v>
       </c>
       <c r="D15">
-        <v>7.124796918104878</v>
+        <v>6.622892052670723</v>
       </c>
       <c r="E15">
-        <v>7.069806994089107</v>
+        <v>6.720497666077411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sub 3104</t>
+          <t>sub 4170</t>
         </is>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>405.5714285714286</v>
+        <v>308</v>
       </c>
       <c r="D16">
-        <v>6.878098400502704</v>
+        <v>7.017351638359888</v>
       </c>
       <c r="E16">
-        <v>6.876968965035582</v>
+        <v>7.152626773849482</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sub 3994</t>
+          <t>sub 3676</t>
         </is>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C17">
-        <v>179.8571428571429</v>
+        <v>280.8571428571428</v>
       </c>
       <c r="D17">
-        <v>7.046069768792965</v>
+        <v>7.036606214789604</v>
       </c>
       <c r="E17">
-        <v>7.15100058406462</v>
+        <v>7.054626929132155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sub 3889</t>
+          <t>sub 4431</t>
         </is>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C18">
-        <v>202.7142857142857</v>
+        <v>96.71428571428571</v>
       </c>
       <c r="D18">
-        <v>7.34555419197442</v>
+        <v>7.020818116522912</v>
       </c>
       <c r="E18">
-        <v>7.434867293404128</v>
+        <v>7.068947435849092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sub 4086</t>
+          <t>sub 4294</t>
         </is>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C19">
-        <v>141.7142857142857</v>
+        <v>107.5714285714286</v>
       </c>
       <c r="D19">
-        <v>7.532991591763652</v>
+        <v>7.214559600266331</v>
       </c>
       <c r="E19">
-        <v>7.683956014677368</v>
+        <v>7.352766992376172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sub 3642</t>
+          <t>sub 3650</t>
         </is>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>275</v>
+        <v>331.5714285714286</v>
       </c>
       <c r="D20">
-        <v>7.006946805494435</v>
+        <v>7.071359391813155</v>
       </c>
       <c r="E20">
-        <v>7.120774063177426</v>
+        <v>7.304801206660142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sub 2522</t>
+          <t>sub 4140</t>
         </is>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>555.8571428571429</v>
+        <v>161.7142857142857</v>
       </c>
       <c r="D21">
-        <v>6.976534794376962</v>
+        <v>6.975010277606088</v>
       </c>
       <c r="E21">
-        <v>6.878207630524543</v>
+        <v>7.074018353204599</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sub 3035</t>
+          <t>sub 3912</t>
         </is>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C22">
-        <v>843.2857142857143</v>
+        <v>229.8571428571429</v>
       </c>
       <c r="D22">
-        <v>7.199048679873495</v>
+        <v>7.118260683603749</v>
       </c>
       <c r="E22">
-        <v>7.344855788232741</v>
+        <v>7.106964680000716</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sub 4182</t>
+          <t>sub 4051</t>
         </is>
       </c>
       <c r="B23">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C23">
-        <v>146.2857142857143</v>
+        <v>196.7142857142857</v>
       </c>
       <c r="D23">
-        <v>7.246077654891511</v>
+        <v>7.058402059460396</v>
       </c>
       <c r="E23">
-        <v>7.213574505912566</v>
+        <v>7.265104995210833</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sub 4137</t>
+          <t>sub 3286</t>
         </is>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C24">
-        <v>162.2857142857143</v>
+        <v>390.1428571428572</v>
       </c>
       <c r="D24">
-        <v>6.779599736754784</v>
+        <v>6.947203699001764</v>
       </c>
       <c r="E24">
-        <v>6.820765719936312</v>
+        <v>7.071932059675354</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sub 3583</t>
+          <t>sub 4208</t>
         </is>
       </c>
       <c r="B25">
         <v>51</v>
       </c>
       <c r="C25">
-        <v>481.5714285714286</v>
+        <v>137.2857142857143</v>
       </c>
       <c r="D25">
-        <v>7.04089640854805</v>
+        <v>6.844582035474438</v>
       </c>
       <c r="E25">
-        <v>7.031325458341337</v>
+        <v>6.870261074554556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sub 4281</t>
+          <t>sub 1536</t>
         </is>
       </c>
       <c r="B26">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>128.5714285714286</v>
+        <v>1061</v>
       </c>
       <c r="D26">
-        <v>6.938525114908565</v>
+        <v>6.884511820778181</v>
       </c>
       <c r="E26">
-        <v>7.064423196070866</v>
+        <v>6.907893730935685</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sub 4191</t>
+          <t>sub 4439</t>
         </is>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27">
-        <v>131.4285714285714</v>
+        <v>79.14285714285714</v>
       </c>
       <c r="D27">
-        <v>6.528340210711074</v>
+        <v>7.240973929106727</v>
       </c>
       <c r="E27">
-        <v>6.579365218778081</v>
+        <v>7.266618338198525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sub 3201</t>
+          <t>sub 4466</t>
         </is>
       </c>
       <c r="B28">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C28">
-        <v>436.4285714285714</v>
+        <v>95.85714285714286</v>
       </c>
       <c r="D28">
-        <v>7.064064798997272</v>
+        <v>6.800857123428436</v>
       </c>
       <c r="E28">
-        <v>7.064543698287891</v>
+        <v>6.759607939389943</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sub 4275</t>
+          <t>sub 4504</t>
         </is>
       </c>
       <c r="B29">
         <v>55</v>
       </c>
       <c r="C29">
-        <v>121.5714285714286</v>
+        <v>78.14285714285714</v>
       </c>
       <c r="D29">
-        <v>6.622892052670723</v>
+        <v>7.17336214378206</v>
       </c>
       <c r="E29">
-        <v>6.720497666077411</v>
+        <v>7.183199988711299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sub 4170</t>
+          <t>sub 3887</t>
         </is>
       </c>
       <c r="B30">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C30">
-        <v>308</v>
+        <v>310.4285714285714</v>
       </c>
       <c r="D30">
-        <v>7.017351638359888</v>
+        <v>6.836989700151324</v>
       </c>
       <c r="E30">
-        <v>7.152626773849482</v>
+        <v>6.922828603479615</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sub 4431</t>
+          <t>sub 4391</t>
         </is>
       </c>
       <c r="B31">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>96.71428571428571</v>
+        <v>101</v>
       </c>
       <c r="D31">
-        <v>7.020818116522912</v>
+        <v>6.89020938905185</v>
       </c>
       <c r="E31">
-        <v>7.068947435849092</v>
+        <v>7.040639403350221</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sub 4294</t>
+          <t>sub 4546</t>
         </is>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C32">
-        <v>107.5714285714286</v>
+        <v>123.5714285714286</v>
       </c>
       <c r="D32">
-        <v>7.214559600266331</v>
+        <v>6.714085246818761</v>
       </c>
       <c r="E32">
-        <v>7.352766992376172</v>
+        <v>6.679859763459568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sub 3650</t>
+          <t>sub 4227</t>
         </is>
       </c>
       <c r="B33">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>331.5714285714286</v>
+        <v>186.7142857142857</v>
       </c>
       <c r="D33">
-        <v>7.071359391813155</v>
-      </c>
-      <c r="E33">
-        <v>7.304801206660142</v>
+        <v>6.556386429835174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sub 4140</t>
+          <t>sub 4532</t>
         </is>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C34">
-        <v>161.7142857142857</v>
+        <v>89.42857142857143</v>
       </c>
       <c r="D34">
-        <v>6.975010277606088</v>
+        <v>7.038688554197772</v>
       </c>
       <c r="E34">
-        <v>7.074018353204599</v>
+        <v>7.054795021631452</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sub 3912</t>
+          <t>sub 3299</t>
         </is>
       </c>
       <c r="B35">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>229.8571428571429</v>
+        <v>509.2857142857143</v>
       </c>
       <c r="D35">
-        <v>7.118260683603749</v>
+        <v>7.003880553503734</v>
       </c>
       <c r="E35">
-        <v>7.106964680000716</v>
+        <v>7.121080051765402</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sub 4051</t>
+          <t>sub 4720</t>
         </is>
       </c>
       <c r="B36">
         <v>59</v>
       </c>
       <c r="C36">
-        <v>196.7142857142857</v>
+        <v>43.28571428571428</v>
       </c>
       <c r="D36">
-        <v>7.058402059460396</v>
+        <v>6.9603032546778</v>
       </c>
       <c r="E36">
-        <v>7.265104995210833</v>
+        <v>7.074549500824056</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sub 3286</t>
+          <t>sub 4607</t>
         </is>
       </c>
       <c r="B37">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C37">
-        <v>390.1428571428572</v>
+        <v>60.42857142857143</v>
       </c>
       <c r="D37">
-        <v>6.934744902988631</v>
+        <v>7.233524545965555</v>
       </c>
       <c r="E37">
-        <v>7.071932059675354</v>
+        <v>7.326711135958234</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sub 4208</t>
+          <t>sub 4728</t>
         </is>
       </c>
       <c r="B38">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>137.2857142857143</v>
+        <v>34.42857142857143</v>
       </c>
       <c r="D38">
-        <v>6.844582035474438</v>
+        <v>6.993156859826387</v>
       </c>
       <c r="E38">
-        <v>6.870261074554556</v>
+        <v>7.002732069885225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sub 1536</t>
+          <t>sub 4769</t>
         </is>
       </c>
       <c r="B39">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>1061</v>
+        <v>31.71428571428572</v>
       </c>
       <c r="D39">
-        <v>6.884511820778181</v>
+        <v>7.38145000440992</v>
       </c>
       <c r="E39">
-        <v>6.907893730935685</v>
+        <v>7.457650505583721</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sub 4439</t>
+          <t>sub 4777</t>
         </is>
       </c>
       <c r="B40">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C40">
-        <v>79.14285714285714</v>
+        <v>28.71428571428572</v>
       </c>
       <c r="D40">
-        <v>7.240973929106727</v>
+        <v>6.882661353482145</v>
       </c>
       <c r="E40">
-        <v>7.266618338198525</v>
+        <v>7.007937705564125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sub 4466</t>
+          <t>sub 3396</t>
         </is>
       </c>
       <c r="B41">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>95.85714285714286</v>
+        <v>337.2857142857143</v>
       </c>
       <c r="D41">
-        <v>6.800857123428436</v>
+        <v>6.886312736330942</v>
       </c>
       <c r="E41">
-        <v>6.759607939389943</v>
+        <v>6.954748958644287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sub 4504</t>
+          <t>sub 4467</t>
         </is>
       </c>
       <c r="B42">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>78.14285714285714</v>
+        <v>31.28571428571428</v>
       </c>
       <c r="D42">
-        <v>7.17336214378206</v>
+        <v>7.195062281103835</v>
       </c>
       <c r="E42">
-        <v>7.183199988711299</v>
+        <v>7.124970950253855</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sub 3887</t>
+          <t>sub 3392</t>
         </is>
       </c>
       <c r="B43">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C43">
-        <v>310.4285714285714</v>
+        <v>331.1428571428572</v>
       </c>
       <c r="D43">
-        <v>6.836989700151324</v>
+        <v>7.048890045500932</v>
       </c>
       <c r="E43">
-        <v>6.922828603479615</v>
+        <v>7.091926217511165</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sub 4391</t>
+          <t>sub 3960</t>
         </is>
       </c>
       <c r="B44">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C44">
-        <v>101</v>
+        <v>239.7142857142857</v>
       </c>
       <c r="D44">
-        <v>6.89020938905185</v>
+        <v>7.272919090316775</v>
       </c>
       <c r="E44">
-        <v>7.040639403350221</v>
+        <v>7.365944104475781</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sub 4546</t>
+          <t>sub 3154</t>
         </is>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>123.5714285714286</v>
+        <v>443.1428571428572</v>
       </c>
       <c r="D45">
-        <v>6.714085246818761</v>
+        <v>7.096204594757248</v>
       </c>
       <c r="E45">
-        <v>6.679859763459568</v>
+        <v>6.999666939315914</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sub 4227</t>
+          <t>sub 3994</t>
         </is>
       </c>
       <c r="B46">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C46">
-        <v>186.7142857142857</v>
+        <v>179.8571428571429</v>
       </c>
       <c r="D46">
-        <v>6.556386429835174</v>
+        <v>7.118088235006313</v>
+      </c>
+      <c r="E46">
+        <v>7.115537975879147</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sub 4532</t>
+          <t>sub 4086</t>
         </is>
       </c>
       <c r="B47">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>89.42857142857143</v>
+        <v>141.7142857142857</v>
       </c>
       <c r="D47">
-        <v>7.038688554197772</v>
+        <v>7.065382666671098</v>
       </c>
       <c r="E47">
-        <v>7.054795021631452</v>
+        <v>7.211965264109365</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sub 4720</t>
+          <t>sub 4002</t>
         </is>
       </c>
       <c r="B48">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C48">
-        <v>43.28571428571428</v>
+        <v>185.2857142857143</v>
       </c>
       <c r="D48">
-        <v>6.9603032546778</v>
+        <v>7.295132844486576</v>
       </c>
       <c r="E48">
-        <v>7.074549500824056</v>
+        <v>7.307564638507666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sub 4607</t>
+          <t>sub 2522</t>
         </is>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>60.42857142857143</v>
+        <v>555.8571428571429</v>
       </c>
       <c r="D49">
-        <v>7.233524545965555</v>
+        <v>6.899297846806425</v>
       </c>
       <c r="E49">
-        <v>7.326711135958234</v>
+        <v>6.884580838538393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sub 4728</t>
+          <t>sub 3364</t>
         </is>
       </c>
       <c r="B50">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>34.42857142857143</v>
+        <v>334.4285714285714</v>
       </c>
       <c r="D50">
-        <v>6.993156859826387</v>
+        <v>7.091708295549481</v>
       </c>
       <c r="E50">
-        <v>7.002732069885225</v>
+        <v>7.019923080878011</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sub 4769</t>
+          <t>sub 2884</t>
         </is>
       </c>
       <c r="B51">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51">
-        <v>31.71428571428572</v>
+        <v>516.8571428571429</v>
       </c>
       <c r="D51">
-        <v>7.372233349304996</v>
+        <v>6.974732413069717</v>
       </c>
       <c r="E51">
-        <v>7.457650505583721</v>
+        <v>7.02803811151775</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sub 4777</t>
+          <t>sub 2998</t>
         </is>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C52">
-        <v>28.71428571428572</v>
+        <v>469.2857142857143</v>
       </c>
       <c r="D52">
-        <v>6.882661353482145</v>
+        <v>7.316782896088275</v>
       </c>
       <c r="E52">
-        <v>7.007937705564125</v>
+        <v>7.537703125680994</v>
       </c>
     </row>
   </sheetData>

--- a/RData/data_rt_congr.xlsx
+++ b/RData/data_rt_congr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,12 +375,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>congruent_log</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>incongruent_log</t>
+          <t>congruent</t>
         </is>
       </c>
     </row>
@@ -397,10 +397,10 @@
         <v>823.4285714285714</v>
       </c>
       <c r="D2">
-        <v>6.957497370876951</v>
+        <v>6.855154431973776</v>
       </c>
       <c r="E2">
-        <v>6.930347458004096</v>
+        <v>6.8632953178494</v>
       </c>
     </row>
     <row r="3">
@@ -416,10 +416,10 @@
         <v>1422.428571428571</v>
       </c>
       <c r="D3">
-        <v>7.383171065316551</v>
+        <v>7.403937288194324</v>
       </c>
       <c r="E3">
-        <v>7.434027401184465</v>
+        <v>7.333570272277946</v>
       </c>
     </row>
     <row r="4">
@@ -435,10 +435,10 @@
         <v>450.8571428571428</v>
       </c>
       <c r="D4">
-        <v>6.92581662006612</v>
+        <v>6.78161611301297</v>
       </c>
       <c r="E4">
-        <v>6.830068449663596</v>
+        <v>6.856756939406908</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>405.5714285714286</v>
       </c>
       <c r="D5">
-        <v>6.878098400502704</v>
+        <v>6.808467489811917</v>
       </c>
       <c r="E5">
-        <v>6.876968965035582</v>
+        <v>6.80157476623411</v>
       </c>
     </row>
     <row r="6">
@@ -473,10 +473,10 @@
         <v>202.7142857142857</v>
       </c>
       <c r="D6">
-        <v>7.34555419197442</v>
+        <v>7.399737799218406</v>
       </c>
       <c r="E6">
-        <v>7.434867293404128</v>
+        <v>7.285273671080859</v>
       </c>
     </row>
     <row r="7">
@@ -492,10 +492,10 @@
         <v>275</v>
       </c>
       <c r="D7">
-        <v>7.006946805494435</v>
+        <v>7.083731622688703</v>
       </c>
       <c r="E7">
-        <v>7.120774063177426</v>
+        <v>6.970550195868143</v>
       </c>
     </row>
     <row r="8">
@@ -511,10 +511,10 @@
         <v>843.2857142857143</v>
       </c>
       <c r="D8">
-        <v>7.199048679873495</v>
+        <v>7.30436030485769</v>
       </c>
       <c r="E8">
-        <v>7.344855788232741</v>
+        <v>7.140148557665009</v>
       </c>
     </row>
     <row r="9">
@@ -530,10 +530,10 @@
         <v>146.2857142857143</v>
       </c>
       <c r="D9">
-        <v>7.246077654891511</v>
+        <v>7.167623867124245</v>
       </c>
       <c r="E9">
-        <v>7.213574505912566</v>
+        <v>7.207124754532847</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         <v>162.2857142857143</v>
       </c>
       <c r="D10">
-        <v>6.779599736754784</v>
+        <v>6.789510803817839</v>
       </c>
       <c r="E10">
-        <v>6.820765719936312</v>
+        <v>6.722531810094384</v>
       </c>
     </row>
     <row r="11">
@@ -568,10 +568,10 @@
         <v>481.5714285714286</v>
       </c>
       <c r="D11">
-        <v>7.04089640854805</v>
+        <v>6.935224266524065</v>
       </c>
       <c r="E11">
-        <v>7.031325458341337</v>
+        <v>6.955017636806402</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         <v>128.5714285714286</v>
       </c>
       <c r="D12">
-        <v>6.938525114908565</v>
+        <v>7.031912383117052</v>
       </c>
       <c r="E12">
-        <v>7.064423196070866</v>
+        <v>6.894791813881637</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>131.4285714285714</v>
       </c>
       <c r="D13">
-        <v>6.528340210711074</v>
+        <v>6.529945522631261</v>
       </c>
       <c r="E13">
-        <v>6.579365218778081</v>
+        <v>6.48114078891111</v>
       </c>
     </row>
     <row r="14">
@@ -625,10 +625,10 @@
         <v>436.4285714285714</v>
       </c>
       <c r="D14">
-        <v>7.064064798997272</v>
+        <v>7.023431838841996</v>
       </c>
       <c r="E14">
-        <v>7.064543698287891</v>
+        <v>7.013676753608281</v>
       </c>
     </row>
     <row r="15">
@@ -644,10 +644,10 @@
         <v>121.5714285714286</v>
       </c>
       <c r="D15">
-        <v>6.622892052670723</v>
+        <v>6.667509593992432</v>
       </c>
       <c r="E15">
-        <v>6.720497666077411</v>
+        <v>6.540272962566089</v>
       </c>
     </row>
     <row r="16">
@@ -663,10 +663,10 @@
         <v>308</v>
       </c>
       <c r="D16">
-        <v>7.017351638359888</v>
+        <v>7.096950649446637</v>
       </c>
       <c r="E16">
-        <v>7.152626773849482</v>
+        <v>6.974750292283433</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         <v>280.8571428571428</v>
       </c>
       <c r="D17">
-        <v>7.036606214789604</v>
+        <v>7.021528423761193</v>
       </c>
       <c r="E17">
-        <v>7.054626929132155</v>
+        <v>6.985212158896155</v>
       </c>
     </row>
     <row r="18">
@@ -701,10 +701,10 @@
         <v>96.71428571428571</v>
       </c>
       <c r="D18">
-        <v>7.020818116522912</v>
+        <v>7.046314635041164</v>
       </c>
       <c r="E18">
-        <v>7.068947435849092</v>
+        <v>6.978568874751917</v>
       </c>
     </row>
     <row r="19">
@@ -720,10 +720,10 @@
         <v>107.5714285714286</v>
       </c>
       <c r="D19">
-        <v>7.214559600266331</v>
+        <v>7.310786280138421</v>
       </c>
       <c r="E19">
-        <v>7.352766992376172</v>
+        <v>7.157297398362553</v>
       </c>
     </row>
     <row r="20">
@@ -739,10 +739,10 @@
         <v>331.5714285714286</v>
       </c>
       <c r="D20">
-        <v>7.071359391813155</v>
+        <v>7.271475287597815</v>
       </c>
       <c r="E20">
-        <v>7.304801206660142</v>
+        <v>6.995286995000902</v>
       </c>
     </row>
     <row r="21">
@@ -758,10 +758,10 @@
         <v>161.7142857142857</v>
       </c>
       <c r="D21">
-        <v>6.975010277606088</v>
+        <v>7.026852149233445</v>
       </c>
       <c r="E21">
-        <v>7.074018353204599</v>
+        <v>6.931727964530378</v>
       </c>
     </row>
     <row r="22">
@@ -777,10 +777,10 @@
         <v>229.8571428571429</v>
       </c>
       <c r="D22">
-        <v>7.118260683603749</v>
+        <v>7.077932208860555</v>
       </c>
       <c r="E22">
-        <v>7.106964680000716</v>
+        <v>7.066079424716583</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         <v>196.7142857142857</v>
       </c>
       <c r="D23">
-        <v>7.058402059460396</v>
+        <v>7.234506157161472</v>
       </c>
       <c r="E23">
-        <v>7.265104995210833</v>
+        <v>7.015097710783885</v>
       </c>
     </row>
     <row r="24">
@@ -815,10 +815,10 @@
         <v>390.1428571428572</v>
       </c>
       <c r="D24">
-        <v>6.947203699001764</v>
+        <v>7.039577099527939</v>
       </c>
       <c r="E24">
-        <v>7.071932059675354</v>
+        <v>6.868211027871116</v>
       </c>
     </row>
     <row r="25">
@@ -834,10 +834,10 @@
         <v>137.2857142857143</v>
       </c>
       <c r="D25">
-        <v>6.844582035474438</v>
+        <v>6.802491171612626</v>
       </c>
       <c r="E25">
-        <v>6.870261074554556</v>
+        <v>6.776345495165813</v>
       </c>
     </row>
     <row r="26">
@@ -853,10 +853,10 @@
         <v>1061</v>
       </c>
       <c r="D26">
-        <v>6.884511820778181</v>
+        <v>6.872839832394217</v>
       </c>
       <c r="E26">
-        <v>6.907893730935685</v>
+        <v>6.811074523045918</v>
       </c>
     </row>
     <row r="27">
@@ -872,10 +872,10 @@
         <v>79.14285714285714</v>
       </c>
       <c r="D27">
-        <v>7.240973929106727</v>
+        <v>7.24424063913516</v>
       </c>
       <c r="E27">
-        <v>7.266618338198525</v>
+        <v>7.215446738197461</v>
       </c>
     </row>
     <row r="28">
@@ -891,10 +891,10 @@
         <v>95.85714285714286</v>
       </c>
       <c r="D28">
-        <v>6.800857123428436</v>
+        <v>6.720504779346006</v>
       </c>
       <c r="E28">
-        <v>6.759607939389943</v>
+        <v>6.741366207748302</v>
       </c>
     </row>
     <row r="29">
@@ -910,10 +910,10 @@
         <v>78.14285714285714</v>
       </c>
       <c r="D29">
-        <v>7.17336214378206</v>
+        <v>7.146337358395427</v>
       </c>
       <c r="E29">
-        <v>7.183199988711299</v>
+        <v>7.120270719059832</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +929,10 @@
         <v>310.4285714285714</v>
       </c>
       <c r="D30">
-        <v>6.836989700151324</v>
+        <v>6.876301032019065</v>
       </c>
       <c r="E30">
-        <v>6.922828603479615</v>
+        <v>6.763521183487605</v>
       </c>
     </row>
     <row r="31">
@@ -948,10 +948,10 @@
         <v>101</v>
       </c>
       <c r="D31">
-        <v>6.89020938905185</v>
+        <v>6.996693190904939</v>
       </c>
       <c r="E31">
-        <v>7.040639403350221</v>
+        <v>6.817423410757864</v>
       </c>
     </row>
     <row r="32">
@@ -967,10 +967,10 @@
         <v>123.5714285714286</v>
       </c>
       <c r="D32">
-        <v>6.714085246818761</v>
+        <v>6.648836831487889</v>
       </c>
       <c r="E32">
-        <v>6.679859763459568</v>
+        <v>6.660101409346352</v>
       </c>
     </row>
     <row r="33">
@@ -985,8 +985,8 @@
       <c r="C33">
         <v>186.7142857142857</v>
       </c>
-      <c r="D33">
-        <v>6.556386429835174</v>
+      <c r="E33">
+        <v>6.48229724781169</v>
       </c>
     </row>
     <row r="34">
@@ -1002,10 +1002,10 @@
         <v>89.42857142857143</v>
       </c>
       <c r="D34">
-        <v>7.038688554197772</v>
+        <v>7.026923425202499</v>
       </c>
       <c r="E34">
-        <v>7.054795021631452</v>
+        <v>6.999973651769692</v>
       </c>
     </row>
     <row r="35">
@@ -1021,10 +1021,10 @@
         <v>509.2857142857143</v>
       </c>
       <c r="D35">
-        <v>7.003880553503734</v>
+        <v>7.082962198585097</v>
       </c>
       <c r="E35">
-        <v>7.121080051765402</v>
+        <v>6.941745336799163</v>
       </c>
     </row>
     <row r="36">
@@ -1040,10 +1040,10 @@
         <v>43.28571428571428</v>
       </c>
       <c r="D36">
-        <v>6.9603032546778</v>
+        <v>7.048189154429294</v>
       </c>
       <c r="E36">
-        <v>7.074549500824056</v>
+        <v>6.929415257979321</v>
       </c>
     </row>
     <row r="37">
@@ -1059,10 +1059,10 @@
         <v>60.42857142857143</v>
       </c>
       <c r="D37">
-        <v>7.233524545965555</v>
+        <v>7.293077199494363</v>
       </c>
       <c r="E37">
-        <v>7.326711135958234</v>
+        <v>7.187866913180908</v>
       </c>
     </row>
     <row r="38">
@@ -1078,10 +1078,10 @@
         <v>34.42857142857143</v>
       </c>
       <c r="D38">
-        <v>6.993156859826387</v>
+        <v>6.96509591993144</v>
       </c>
       <c r="E38">
-        <v>7.002732069885225</v>
+        <v>6.942317143121987</v>
       </c>
     </row>
     <row r="39">
@@ -1097,10 +1097,10 @@
         <v>31.71428571428572</v>
       </c>
       <c r="D39">
-        <v>7.38145000440992</v>
+        <v>7.429657439962671</v>
       </c>
       <c r="E39">
-        <v>7.457650505583721</v>
+        <v>7.331064601023954</v>
       </c>
     </row>
     <row r="40">
@@ -1116,10 +1116,10 @@
         <v>28.71428571428572</v>
       </c>
       <c r="D40">
-        <v>6.882661353482145</v>
+        <v>6.977835036594626</v>
       </c>
       <c r="E40">
-        <v>7.007937705564125</v>
+        <v>6.840526099275227</v>
       </c>
     </row>
     <row r="41">
@@ -1135,10 +1135,10 @@
         <v>337.2857142857143</v>
       </c>
       <c r="D41">
-        <v>6.886312736330942</v>
+        <v>6.902565226391424</v>
       </c>
       <c r="E41">
-        <v>6.954748958644287</v>
+        <v>6.844581679342041</v>
       </c>
     </row>
     <row r="42">
@@ -1154,200 +1154,10 @@
         <v>31.28571428571428</v>
       </c>
       <c r="D42">
-        <v>7.195062281103835</v>
+        <v>7.078986091777253</v>
       </c>
       <c r="E42">
-        <v>7.124970950253855</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>sub 3392</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>53</v>
-      </c>
-      <c r="C43">
-        <v>331.1428571428572</v>
-      </c>
-      <c r="D43">
-        <v>7.048890045500932</v>
-      </c>
-      <c r="E43">
-        <v>7.091926217511165</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>sub 3960</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>79</v>
-      </c>
-      <c r="C44">
-        <v>239.7142857142857</v>
-      </c>
-      <c r="D44">
-        <v>7.272919090316775</v>
-      </c>
-      <c r="E44">
-        <v>7.365944104475781</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>sub 3154</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>30</v>
-      </c>
-      <c r="C45">
-        <v>443.1428571428572</v>
-      </c>
-      <c r="D45">
-        <v>7.096204594757248</v>
-      </c>
-      <c r="E45">
-        <v>6.999666939315914</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>sub 3994</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>55</v>
-      </c>
-      <c r="C46">
-        <v>179.8571428571429</v>
-      </c>
-      <c r="D46">
-        <v>7.118088235006313</v>
-      </c>
-      <c r="E46">
-        <v>7.115537975879147</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>sub 4086</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>59</v>
-      </c>
-      <c r="C47">
-        <v>141.7142857142857</v>
-      </c>
-      <c r="D47">
-        <v>7.065382666671098</v>
-      </c>
-      <c r="E47">
-        <v>7.211965264109365</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>sub 4002</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>69</v>
-      </c>
-      <c r="C48">
-        <v>185.2857142857143</v>
-      </c>
-      <c r="D48">
-        <v>7.295132844486576</v>
-      </c>
-      <c r="E48">
-        <v>7.307564638507666</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>sub 2522</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>555.8571428571429</v>
-      </c>
-      <c r="D49">
-        <v>6.899297846806425</v>
-      </c>
-      <c r="E49">
-        <v>6.884580838538393</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>sub 3364</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>34</v>
-      </c>
-      <c r="C50">
-        <v>334.4285714285714</v>
-      </c>
-      <c r="D50">
-        <v>7.091708295549481</v>
-      </c>
-      <c r="E50">
-        <v>7.019923080878011</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>sub 2884</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>55</v>
-      </c>
-      <c r="C51">
-        <v>516.8571428571429</v>
-      </c>
-      <c r="D51">
-        <v>6.974732413069717</v>
-      </c>
-      <c r="E51">
-        <v>7.02803811151775</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sub 2998</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>59</v>
-      </c>
-      <c r="C52">
-        <v>469.2857142857143</v>
-      </c>
-      <c r="D52">
-        <v>7.316782896088275</v>
-      </c>
-      <c r="E52">
-        <v>7.537703125680994</v>
+        <v>7.139794371580491</v>
       </c>
     </row>
   </sheetData>
